--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Start\Project\Arknights-PersonalCard\PyBase\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Start\Project\Arknights-PersonalCard\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC685A4-ADDE-4637-9689-8FE89E30D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73356AF4-4208-4FC4-A020-C772A06F7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1992" windowWidth="13020" windowHeight="8856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练度表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>制图时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单行展示多少个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,8 +801,8 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,29 +813,29 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7"/>
       <c r="F1" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6">
         <v>6</v>
@@ -866,12 +862,12 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -898,12 +894,12 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -927,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -956,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1043,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1133,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1194,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1223,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,12 +1248,12 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1281,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1339,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1368,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1397,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1455,12 +1451,12 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1487,12 +1483,12 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1516,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1545,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1574,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1632,12 +1628,12 @@
         <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -1661,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1690,12 +1686,12 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -1704,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -1719,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1780,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,12 +1805,12 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1841,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1870,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1899,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1928,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1986,12 +1982,12 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2015,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2044,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2073,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2160,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2247,12 +2243,12 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2276,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2337,7 +2333,7 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2427,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2456,12 +2452,12 @@
         <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -2485,12 +2481,12 @@
         <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2514,12 +2510,12 @@
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2543,12 +2539,12 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -2572,12 +2568,12 @@
         <v>7</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -2601,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -2630,12 +2626,12 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2659,12 +2655,12 @@
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -2688,12 +2684,12 @@
         <v>10</v>
       </c>
       <c r="J64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2717,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2749,12 +2745,12 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2778,12 +2774,12 @@
         <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -2807,12 +2803,12 @@
         <v>10</v>
       </c>
       <c r="J68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2836,12 +2832,12 @@
         <v>10</v>
       </c>
       <c r="J69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -2865,12 +2861,12 @@
         <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2894,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2919,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2932,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,36 +2956,36 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>170</v>
@@ -2997,41 +2993,33 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13">
         <v>150</v>
       </c>
     </row>

--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Start\Project\Arknights-PersonalCard\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73356AF4-4208-4FC4-A020-C772A06F7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB855815-E8B7-4AFE-BA4C-23A2AD5B77E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3108" yWindow="924" windowWidth="13020" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="练度表" sheetId="1" r:id="rId1"/>
-    <sheet name="其他信息" sheetId="2" r:id="rId2"/>
+    <sheet name="其他信息" sheetId="2" r:id="rId1"/>
+    <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eumenides#9445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主头像使用：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +392,22 @@
   </si>
   <si>
     <t>右边距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总专精数与右侧距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题文距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姆吉es#9445</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,12 +809,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2">
+        <v>93291412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -822,7 +976,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="7"/>
       <c r="F1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -830,7 +984,7 @@
         <v>64</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,12 +1048,12 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -923,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1010,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1071,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1129,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1158,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1219,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,12 +1402,12 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1277,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1364,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1393,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,12 +1605,12 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1483,12 +1637,12 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1512,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1541,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,12 +1782,12 @@
         <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -1657,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,12 +1840,12 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -1715,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,12 +1959,12 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1837,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1866,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1895,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1924,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1982,12 +2136,12 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2011,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2040,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2156,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2214,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2243,12 +2397,12 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2272,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F53">
         <v>7</v>
@@ -2362,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2452,12 +2606,12 @@
         <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -2481,12 +2635,12 @@
         <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2510,12 +2664,12 @@
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2539,12 +2693,12 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -2568,12 +2722,12 @@
         <v>7</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -2597,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -2626,12 +2780,12 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2655,12 +2809,12 @@
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -2684,12 +2838,12 @@
         <v>10</v>
       </c>
       <c r="J64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2713,12 +2867,12 @@
         <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2741,16 +2895,13 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2774,12 +2925,12 @@
         <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -2803,12 +2954,12 @@
         <v>10</v>
       </c>
       <c r="J68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2832,12 +2983,12 @@
         <v>10</v>
       </c>
       <c r="J69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -2861,12 +3012,12 @@
         <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2890,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2911,121 +3062,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2">
-        <v>93291412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Start\Project\Arknights-PersonalCard\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB855815-E8B7-4AFE-BA4C-23A2AD5B77E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90C20B-DA32-44FE-B329-43BABE026ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="924" windowWidth="13020" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>姆吉es#9445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -952,20 +956,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
@@ -983,11 +987,12 @@
       <c r="I1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -1015,11 +1020,12 @@
       <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="6"/>
+      <c r="K2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
@@ -1047,11 +1053,14 @@
       <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -1076,11 +1085,11 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1105,11 +1114,11 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1134,11 +1143,11 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1163,11 +1172,11 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1192,11 +1201,11 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1224,11 +1233,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1253,11 +1265,11 @@
       <c r="H10">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1282,11 +1294,11 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1311,11 +1323,11 @@
       <c r="H12">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1343,11 +1355,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1372,11 +1387,11 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1401,11 +1416,11 @@
       <c r="H15">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1430,11 +1445,11 @@
       <c r="H16">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1459,11 +1474,11 @@
       <c r="H17">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1488,11 +1503,11 @@
       <c r="H18">
         <v>7</v>
       </c>
-      <c r="J18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1517,11 +1532,11 @@
       <c r="H19">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1546,11 +1561,11 @@
       <c r="H20">
         <v>7</v>
       </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1575,11 +1590,11 @@
       <c r="H21">
         <v>7</v>
       </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1604,11 +1619,11 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1636,11 +1651,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1665,11 +1683,11 @@
       <c r="H24">
         <v>7</v>
       </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1694,11 +1712,11 @@
       <c r="H25">
         <v>7</v>
       </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1723,11 +1741,11 @@
       <c r="H26">
         <v>7</v>
       </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1752,11 +1770,11 @@
       <c r="H27">
         <v>10</v>
       </c>
-      <c r="J27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1781,11 +1799,11 @@
       <c r="H28">
         <v>7</v>
       </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1810,11 +1828,11 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="J29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1839,11 +1857,11 @@
       <c r="H30">
         <v>10</v>
       </c>
-      <c r="J30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1868,11 +1886,11 @@
       <c r="H31">
         <v>10</v>
       </c>
-      <c r="J31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1897,11 +1915,11 @@
       <c r="H32">
         <v>7</v>
       </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1929,11 +1947,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1958,11 +1979,11 @@
       <c r="H34">
         <v>10</v>
       </c>
-      <c r="J34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1990,11 +2011,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2019,11 +2043,11 @@
       <c r="H36">
         <v>10</v>
       </c>
-      <c r="J36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2048,11 +2072,11 @@
       <c r="H37">
         <v>10</v>
       </c>
-      <c r="J37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2077,11 +2101,11 @@
       <c r="H38">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2106,11 +2130,11 @@
       <c r="H39">
         <v>10</v>
       </c>
-      <c r="J39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2135,11 +2159,11 @@
       <c r="H40">
         <v>10</v>
       </c>
-      <c r="J40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2164,11 +2188,11 @@
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="J41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2193,11 +2217,11 @@
       <c r="H42">
         <v>10</v>
       </c>
-      <c r="J42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2222,11 +2246,11 @@
       <c r="H43">
         <v>7</v>
       </c>
-      <c r="J43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2251,11 +2275,11 @@
       <c r="H44">
         <v>7</v>
       </c>
-      <c r="J44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2280,11 +2304,11 @@
       <c r="H45">
         <v>7</v>
       </c>
-      <c r="J45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2309,11 +2333,11 @@
       <c r="H46">
         <v>10</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2338,11 +2362,11 @@
       <c r="H47">
         <v>7</v>
       </c>
-      <c r="J47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2367,11 +2391,11 @@
       <c r="H48">
         <v>10</v>
       </c>
-      <c r="J48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2396,11 +2420,11 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="J49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -2425,11 +2449,11 @@
       <c r="H50">
         <v>7</v>
       </c>
-      <c r="J50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2457,11 +2481,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -2486,11 +2513,11 @@
       <c r="H52">
         <v>7</v>
       </c>
-      <c r="J52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -2515,11 +2542,11 @@
       <c r="H53">
         <v>10</v>
       </c>
-      <c r="J53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -2547,11 +2574,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2576,11 +2606,11 @@
       <c r="H55">
         <v>10</v>
       </c>
-      <c r="J55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -2605,11 +2635,11 @@
       <c r="H56">
         <v>7</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2634,11 +2664,11 @@
       <c r="H57">
         <v>7</v>
       </c>
-      <c r="J57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2663,11 +2693,11 @@
       <c r="H58">
         <v>10</v>
       </c>
-      <c r="J58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2692,11 +2722,11 @@
       <c r="H59">
         <v>10</v>
       </c>
-      <c r="J59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2721,11 +2751,11 @@
       <c r="H60">
         <v>7</v>
       </c>
-      <c r="J60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2750,11 +2780,11 @@
       <c r="H61">
         <v>8</v>
       </c>
-      <c r="J61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2779,11 +2809,11 @@
       <c r="H62">
         <v>9</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -2808,11 +2838,11 @@
       <c r="H63">
         <v>10</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -2837,11 +2867,11 @@
       <c r="H64">
         <v>10</v>
       </c>
-      <c r="J64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -2866,11 +2896,11 @@
       <c r="H65">
         <v>10</v>
       </c>
-      <c r="J65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -2895,11 +2925,11 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="J66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2924,11 +2954,11 @@
       <c r="H67">
         <v>7</v>
       </c>
-      <c r="J67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -2953,11 +2983,11 @@
       <c r="H68">
         <v>10</v>
       </c>
-      <c r="J68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -2982,11 +3012,11 @@
       <c r="H69">
         <v>10</v>
       </c>
-      <c r="J69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3011,11 +3041,11 @@
       <c r="H70">
         <v>7</v>
       </c>
-      <c r="J70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3040,7 +3070,7 @@
       <c r="H71">
         <v>7</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3051,10 +3081,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J4:J71" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4:K71" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"精一,精二,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:I1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576 J1:J2 B1:H1048576 I1:I3 I4:I1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>

--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDCard-main/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-DreamHajimebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BB01B0AE-F68F-47CF-86D6-6EA444646382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE79EDB-E5DE-4105-9312-50EFC7EF7631}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{BB01B0AE-F68F-47CF-86D6-6EA444646382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDE98C4-06DD-4988-8AE2-F025542BF1C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1517,7 +1517,7 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>10</v>

--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Start\Project\Arknights-PersonalCard\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90C20B-DA32-44FE-B329-43BABE026ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCCF3B-2B5D-4A65-9B51-F9A26633FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="492" windowWidth="13020" windowHeight="8856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,11 +407,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姆吉es#9445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模组等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE#1551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +821,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -832,7 +836,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,11 +960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1058,7 @@
         <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>92</v>
@@ -2171,7 +2175,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2194,28 +2198,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>93</v>
@@ -2223,7 +2227,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2235,16 +2239,16 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
         <v>93</v>
@@ -2252,7 +2256,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2264,13 +2268,13 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>7</v>
@@ -2281,7 +2285,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2293,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>7</v>
@@ -2310,42 +2314,42 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2357,30 +2361,30 @@
         <v>7</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -2389,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K48" t="s">
         <v>93</v>
@@ -2397,28 +2401,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K49" t="s">
         <v>93</v>
@@ -2426,28 +2430,28 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
         <v>93</v>
@@ -2455,71 +2459,71 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <v>7</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F52">
         <v>7</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2531,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>7</v>
@@ -2540,7 +2544,7 @@
         <v>7</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K53" t="s">
         <v>93</v>
@@ -2548,112 +2552,112 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F54">
         <v>7</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
       <c r="K54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>7</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -2665,33 +2669,33 @@
         <v>7</v>
       </c>
       <c r="K57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>7</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K58" t="s">
         <v>93</v>
@@ -2699,7 +2703,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2711,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2728,7 +2732,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -2746,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K60" t="s">
         <v>93</v>
@@ -2757,13 +2761,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2775,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K61" t="s">
         <v>93</v>
@@ -2786,13 +2790,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2807,21 +2811,21 @@
         <v>7</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2833,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" t="s">
         <v>99</v>
@@ -2844,7 +2848,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -2862,30 +2866,30 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="K64" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2902,28 +2906,28 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K66" t="s">
         <v>93</v>
@@ -2931,28 +2935,28 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
         <v>93</v>
@@ -2960,28 +2964,28 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K68" t="s">
         <v>93</v>
@@ -2989,25 +2993,25 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H69">
         <v>10</v>
@@ -3018,10 +3022,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -3030,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3039,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K70" t="s">
         <v>93</v>
@@ -3047,7 +3051,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -3059,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3071,6 +3075,35 @@
         <v>7</v>
       </c>
       <c r="K71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="K72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3081,7 +3114,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4:K71" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4:K72" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"精一,精二,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576 J1:J2 B1:H1048576 I1:I3 I4:I1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">

--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B67B2A01-0768-4584-9EAA-BCAE8DE5D4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23D30117-1DAE-4414-9C3A-74A2386D1718}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B67B2A01-0768-4584-9EAA-BCAE8DE5D4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A2A5A78-0D40-41CF-9E8E-583EA4AE7312}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="1770" windowWidth="15020" windowHeight="12830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -512,17 +512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,8 +949,8 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -965,17 +965,17 @@
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1028,37 +1028,37 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>93</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>96</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -2273,20 +2273,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:I1048576" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I472:I1048576" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"精一,精二,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:K1048576 K2 K27:K41 B27:G41 B44:I1048576 B1:I2" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:K1048576 K2 K27:K41 B27:G41 B1:I2 B44:H1048576 I472:I1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L42:L1048576" xr:uid="{27BFACEE-0458-49BB-99EE-46C646D85B72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L284:L1048576" xr:uid="{27BFACEE-0458-49BB-99EE-46C646D85B72}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L41" xr:uid="{B2B71651-7377-4CBC-9E92-0B5441AE019D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L283" xr:uid="{B2B71651-7377-4CBC-9E92-0B5441AE019D}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I41" xr:uid="{A72590A1-951E-4ED7-93BF-2CC3E5A25AD4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I471" xr:uid="{A72590A1-951E-4ED7-93BF-2CC3E5A25AD4}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkE.xlsx
+++ b/Source/arkE.xlsx
@@ -950,7 +950,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
